--- a/Ca_phe/Web_Minh/Mau_don_hang.xlsx
+++ b/Ca_phe/Web_Minh/Mau_don_hang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Đơn hàng cà phê Mộc</t>
   </si>
@@ -34,19 +34,28 @@
     <t>Họ tên người nhận hàng:</t>
   </si>
   <si>
-    <t>STT</t>
+    <t>Danh Sách Sản Phẩm</t>
   </si>
   <si>
-    <t>Tên sản phẩm</t>
+    <t>Ghi Chú</t>
   </si>
   <si>
-    <t>Giá</t>
+    <t>ID Khách Hàng</t>
   </si>
   <si>
-    <t>Tổng số lượng</t>
+    <t>ID Nhân Viên</t>
   </si>
   <si>
-    <t>Số lượng thêm bớt</t>
+    <t>Tên Khách Hàng</t>
+  </si>
+  <si>
+    <t>Thời Gian Lập</t>
+  </si>
+  <si>
+    <t>Tổng Cộng</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -702,7 +711,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
@@ -1241,7 +1250,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1326,33 +1335,36 @@
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="3">
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
